--- a/Manual-Testing/Templates/TestCasesTemplate_DBuonpane_11.16.25.xlsx
+++ b/Manual-Testing/Templates/TestCasesTemplate_DBuonpane_11.16.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodingProjects\QA-Portfolio\Manual-Testing\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{691E0014-1912-4727-88FE-A1480C45AE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454877B5-2E84-4FE8-8CC3-93F41944AE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15720" xr2:uid="{4C38DD76-CF43-4CD3-BDA5-DD01809C6AAE}"/>
   </bookViews>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
-  <si>
-    <t xml:space="preserve">Author: Danielle Buonpane </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t xml:space="preserve">Last Updated: </t>
   </si>
@@ -153,7 +150,22 @@
     <t>BRING ME BACK TO THE TEST CASES!</t>
   </si>
   <si>
-    <t xml:space="preserve">Website Under Test: &lt;WEBSITE-NAME&gt; </t>
+    <t xml:space="preserve">Website Under Test: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Website-Name&gt; </t>
+  </si>
+  <si>
+    <t>Author:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;Enter-Name&gt; </t>
+  </si>
+  <si>
+    <t>HELPFUL LINK(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELPFUL LINK(S) </t>
   </si>
 </sst>
 </file>
@@ -161,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mm/dd/yyyy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mm/dd/yyyy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,16 +231,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -236,33 +261,232 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -276,20 +500,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -438,8 +648,27 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -452,19 +681,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB5A7D84-235A-4706-AB07-472A6CFD0A3F}" name="Table1" displayName="Table1" ref="A6:J7" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB5A7D84-235A-4706-AB07-472A6CFD0A3F}" name="Table1" displayName="Table1" ref="A6:J7" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A6:J7" xr:uid="{BB5A7D84-235A-4706-AB07-472A6CFD0A3F}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5751DD1E-28A2-4101-81F0-85B5D28B5E02}" name="Test Case ID " dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{86027735-8CCF-40CC-9C4C-34FDB63314BA}" name="Feature/Module" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FACB0D9C-394F-47B4-8905-D37919C60036}" name="Test Scenario " dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EAC922AA-4A9C-40FE-A139-D76B6A0A8FC3}" name="Preconditions" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{5F0CFA7D-41CA-430B-B321-B6A5BDF11279}" name="Test Steps " dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E6C15836-4EF3-40BE-98A9-90C9D6169542}" name="Expected Results " dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E86FC231-F879-4CBE-A5FA-7BC55AB91F01}" name="Actual Results " dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{2789F86C-A1B5-41E9-BD39-817F4EB1DB23}" name="Status (ex. Pass/Fail) " dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{83EC1CBF-0CD7-4F0A-9E42-2B5AF4D337D5}" name="Severity/Priority" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C7E36DE3-8F84-46AA-AA49-9C1616194817}" name="Comments/Attachments" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5751DD1E-28A2-4101-81F0-85B5D28B5E02}" name="Test Case ID " dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{86027735-8CCF-40CC-9C4C-34FDB63314BA}" name="Feature/Module" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FACB0D9C-394F-47B4-8905-D37919C60036}" name="Test Scenario " dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{EAC922AA-4A9C-40FE-A139-D76B6A0A8FC3}" name="Preconditions" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5F0CFA7D-41CA-430B-B321-B6A5BDF11279}" name="Test Steps " dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E6C15836-4EF3-40BE-98A9-90C9D6169542}" name="Expected Results " dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E86FC231-F879-4CBE-A5FA-7BC55AB91F01}" name="Actual Results " dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{2789F86C-A1B5-41E9-BD39-817F4EB1DB23}" name="Status (ex. Pass/Fail) " dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{83EC1CBF-0CD7-4F0A-9E42-2B5AF4D337D5}" name="Severity/Priority" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{C7E36DE3-8F84-46AA-AA49-9C1616194817}" name="Comments/Attachments" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -812,7 +1041,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,87 +1058,94 @@
     <col min="10" max="10" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="30.75" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="D2" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="13">
+        <f ca="1">NOW()</f>
+        <v>45977.763060069447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9">
-        <f ca="1">NOW()</f>
-        <v>45977.753784837965</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -929,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8625EE-43F0-44B9-8C66-5F9231967E1C}">
-  <dimension ref="A2:E18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,121 +1179,132 @@
     <col min="5" max="5" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
+      <c r="A14" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2:E2" location="'Test Cases'!A1" display="BRING ME BACK TO THE TEST CASES!" xr:uid="{9F930EEB-B278-431D-96F5-2EDC46827C0D}"/>
+    <hyperlink ref="A2:E2" location="'Test Cases'!A1" display="BRING ME BACK TO THE TEST CASES!" xr:uid="{CBF025EE-35BC-4B4D-827E-2C96CCA25E79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
